--- a/PhoenixCI/Excel_Template/S0020.xlsx
+++ b/PhoenixCI/Excel_Template/S0020.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\John\Source\Repos\buckblader\RekindlePhoenixCI\PhoenixCI\Excel_Template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KJSOFT\Desktop\update_template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C8123A29-0BC9-40AE-9800-1918FDDC3B1F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F1BDB93D-D7E1-4388-ADAD-D76CDF31DE47}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="450" yWindow="90" windowWidth="8505" windowHeight="4530"/>
   </bookViews>
   <sheets>
     <sheet name="S0020" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,6 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -597,7 +596,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-60CA-4B58-824C-A080B22AF58D}"/>
+              <c16:uniqueId val="{00000000-6A19-4BC0-B6B2-18367A76CC5C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -610,11 +609,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="434519760"/>
+        <c:axId val="331478696"/>
         <c:axId val="1"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="434519760"/>
+        <c:axId val="331478696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -770,7 +769,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="434519760"/>
+        <c:crossAx val="331478696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.1"/>
@@ -845,7 +844,7 @@
         <xdr:cNvPr id="1044" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ADB5A236-53F3-48A7-962E-6980C0EC3BE6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1CC6933C-67DF-4E0A-BE0E-DB90B3FB28C0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>

--- a/PhoenixCI/Excel_Template/S0020.xlsx
+++ b/PhoenixCI/Excel_Template/S0020.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KJSOFT\Desktop\update_template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\John\Source\Repos\buckblader\RekindlePhoenixCI\PhoenixCI\Excel_Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F1BDB93D-D7E1-4388-ADAD-D76CDF31DE47}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C8123A29-0BC9-40AE-9800-1918FDDC3B1F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="450" yWindow="90" windowWidth="8505" windowHeight="4530"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="S0020" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -596,7 +597,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-6A19-4BC0-B6B2-18367A76CC5C}"/>
+              <c16:uniqueId val="{00000000-60CA-4B58-824C-A080B22AF58D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -609,11 +610,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="331478696"/>
+        <c:axId val="434519760"/>
         <c:axId val="1"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="331478696"/>
+        <c:axId val="434519760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -769,7 +770,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="331478696"/>
+        <c:crossAx val="434519760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.1"/>
@@ -844,7 +845,7 @@
         <xdr:cNvPr id="1044" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1CC6933C-67DF-4E0A-BE0E-DB90B3FB28C0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ADB5A236-53F3-48A7-962E-6980C0EC3BE6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
